--- a/data/trans_orig/P78C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BCB711-CADA-424F-A76B-BE7FFE173D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC27E7D-95CA-48B4-98A5-09CF9D03E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53A30F64-32AE-47A9-BE68-4EA8D692E0F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B41ECF61-071D-4C0E-8FE7-59E4F2335351}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de cuotas de compras aplazadas en 2023 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>33,81%</t>
+    <t>31,53%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,46 +134,52 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -182,16 +188,16 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>0%</t>
@@ -200,70 +206,70 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -678,7 +684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B804CE-0F46-42CE-8D28-169ACCEF1F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB82CFE6-E81A-4790-8E29-AFF039423C5B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -799,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1683</v>
+        <v>1479</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -814,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3592</v>
+        <v>3278</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -829,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>5275</v>
+        <v>4756</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -850,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>3295</v>
+        <v>3210</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -865,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>4092</v>
+        <v>3796</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -880,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>7387</v>
+        <v>7007</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -901,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>4978</v>
+        <v>4689</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -916,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>7684</v>
+        <v>7074</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -931,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>12662</v>
+        <v>11763</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -954,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2132</v>
+        <v>1902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -969,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>4273</v>
+        <v>3945</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -978,22 +984,22 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>6405</v>
+        <v>5847</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1005,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>14208</v>
+        <v>14806</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -1020,31 +1026,31 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2111</v>
+        <v>1881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>16319</v>
+        <v>16687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1056,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>16340</v>
+        <v>16708</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1071,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>6384</v>
+        <v>5826</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1086,7 +1092,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>22724</v>
+        <v>22534</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1109,13 +1115,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1124,13 +1130,13 @@
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2575</v>
+        <v>2417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -1139,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3782</v>
+        <v>3604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>23</v>
@@ -1166,40 +1172,40 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>999</v>
+        <v>941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>999</v>
+        <v>941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1211,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1226,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3574</v>
+        <v>3358</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1241,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>4781</v>
+        <v>4545</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1264,46 +1270,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>5022</v>
+        <v>4568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>10440</v>
+        <v>9639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>15462</v>
+        <v>14207</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1315,46 +1321,46 @@
         <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>17502</v>
+        <v>18016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>7203</v>
+        <v>6618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>24705</v>
+        <v>24634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,7 +1372,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>22524</v>
+        <v>22584</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1381,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="7">
-        <v>17643</v>
+        <v>16257</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1396,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="N15" s="7">
-        <v>40167</v>
+        <v>38841</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1410,7 +1416,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
